--- a/trash/рассчет колонок.xlsx
+++ b/trash/рассчет колонок.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEXX\Работа\Plant\trash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Programming\000.WW\Plant\site.Plant\trash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E847A903-1A3C-4B95-9675-E8F2C283696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD498A8B-AC3A-4821-9103-60B027252E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81026F23-6CD7-4178-9575-9D4AEA9F9CFB}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{81026F23-6CD7-4178-9575-9D4AEA9F9CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -376,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFCC56-5908-45A8-AFE8-DFE2132E7FF6}">
-  <dimension ref="B1:K11"/>
+  <dimension ref="B1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1784</v>
       </c>
@@ -411,8 +411,37 @@
         <f>J1*100/$B$1</f>
         <v>4.2040358744394615</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M1">
+        <f>O9</f>
+        <v>438</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1">
+        <f>O1*100/$M$1</f>
+        <v>7.5342465753424657</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1">
+        <f>T9</f>
+        <v>701</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1">
+        <f>T1*100/$R$1</f>
+        <v>4.7075606276747504</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D2">
         <v>2</v>
       </c>
@@ -420,7 +449,7 @@
         <v>520</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:G10" si="0">E2*100/$B$1</f>
+        <f t="shared" ref="F2:F10" si="0">E2*100/$B$1</f>
         <v>29.147982062780269</v>
       </c>
       <c r="G2">
@@ -436,8 +465,29 @@
         <f t="shared" ref="K2:K8" si="1">J2*100/$B$1</f>
         <v>25.224215246636771</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>135</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P4" si="2">O2*100/$M$1</f>
+        <v>30.82191780821918</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>129</v>
+      </c>
+      <c r="U2" s="1">
+        <f t="shared" ref="U2:U7" si="3">T2*100/$R$1</f>
+        <v>18.40228245363766</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>3</v>
       </c>
@@ -461,8 +511,29 @@
         <f t="shared" si="1"/>
         <v>11.210762331838565</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>135</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="2"/>
+        <v>30.82191780821918</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>108</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="3"/>
+        <v>15.406562054208274</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>4</v>
       </c>
@@ -486,8 +557,29 @@
         <f t="shared" si="1"/>
         <v>28.026905829596412</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>135</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>30.82191780821918</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>98</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="3"/>
+        <v>13.98002853067047</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>5</v>
       </c>
@@ -511,8 +603,18 @@
         <f t="shared" si="1"/>
         <v>13.424887892376681</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>116</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="3"/>
+        <v>16.547788873038517</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>6</v>
       </c>
@@ -536,8 +638,18 @@
         <f t="shared" si="1"/>
         <v>13.424887892376681</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>117</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="3"/>
+        <v>16.690442225392296</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>7</v>
       </c>
@@ -561,8 +673,18 @@
         <f t="shared" si="1"/>
         <v>2.2421524663677128</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="3"/>
+        <v>14.265335235378032</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>8</v>
       </c>
@@ -587,7 +709,7 @@
         <v>2.2421524663677128</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>9</v>
       </c>
@@ -609,8 +731,25 @@
         <f>SUM(K1:K8)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>SUM(O1:O8)</f>
+        <v>438</v>
+      </c>
+      <c r="P9" s="1">
+        <f>SUM(P1:P8)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="T9">
+        <f>SUM(T1:T8)</f>
+        <v>701</v>
+      </c>
+      <c r="U9" s="1">
+        <f>SUM(U1:U8)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E10">
         <f>SUM(E1:E9)</f>
         <v>1784</v>
@@ -624,7 +763,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E11">
         <f>E10-B1</f>
         <v>0</v>

--- a/trash/рассчет колонок.xlsx
+++ b/trash/рассчет колонок.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Programming\000.WW\Plant\site.Plant\trash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEXX\Работа\Plant\trash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD498A8B-AC3A-4821-9103-60B027252E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B39074A-C842-4DAE-A677-FD8075380CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{81026F23-6CD7-4178-9575-9D4AEA9F9CFB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81026F23-6CD7-4178-9575-9D4AEA9F9CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -55,13 +55,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -376,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFCC56-5908-45A8-AFE8-DFE2132E7FF6}">
-  <dimension ref="B1:U11"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1784</v>
       </c>
@@ -441,7 +532,7 @@
         <v>4.7075606276747504</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>2</v>
       </c>
@@ -487,7 +578,7 @@
         <v>18.40228245363766</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>3</v>
       </c>
@@ -533,7 +624,7 @@
         <v>15.406562054208274</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>4</v>
       </c>
@@ -579,7 +670,7 @@
         <v>13.98002853067047</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>5</v>
       </c>
@@ -614,7 +705,7 @@
         <v>16.547788873038517</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>6</v>
       </c>
@@ -649,7 +740,7 @@
         <v>16.690442225392296</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>7</v>
       </c>
@@ -684,7 +775,7 @@
         <v>14.265335235378032</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>8</v>
       </c>
@@ -709,7 +800,7 @@
         <v>2.2421524663677128</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>9</v>
       </c>
@@ -749,7 +840,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>SUM(E1:E9)</f>
         <v>1784</v>
@@ -763,10 +854,776 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>E10-B1</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>C25</f>
+        <v>1084</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15*100/$A$15</f>
+        <v>3.0442804428044279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>105</v>
+      </c>
+      <c r="D16" s="7">
+        <f>C16*100/$A$15</f>
+        <v>9.6863468634686338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>93</v>
+      </c>
+      <c r="D17" s="7">
+        <f>C17*100/$A$15</f>
+        <v>8.5793357933579344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>98</v>
+      </c>
+      <c r="D18" s="7">
+        <f>C18*100/$A$15</f>
+        <v>9.0405904059040587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <v>155.25</v>
+      </c>
+      <c r="D19" s="7">
+        <f>C19*100/$A$15</f>
+        <v>14.321955719557195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>134</v>
+      </c>
+      <c r="D20" s="7">
+        <f>C20*100/$A$15</f>
+        <v>12.361623616236162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>155.25</v>
+      </c>
+      <c r="D21" s="7">
+        <f>C21*100/$A$15</f>
+        <v>14.321955719557195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>155.25</v>
+      </c>
+      <c r="D22" s="7">
+        <f>C22*100/$A$15</f>
+        <v>14.321955719557195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6">
+        <v>155.25</v>
+      </c>
+      <c r="D23" s="7">
+        <f>C23*100/$A$15</f>
+        <v>14.321955719557195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10">
+        <f>SUM(C15:C23)</f>
+        <v>1084</v>
+      </c>
+      <c r="D25" s="11">
+        <f>SUM(D15:D23)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f>C37</f>
+        <v>1784</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>301</v>
+      </c>
+      <c r="D27" s="4">
+        <f>C27*100/$A$27</f>
+        <v>16.872197309417039</v>
+      </c>
+      <c r="F27" s="2">
+        <f>H37</f>
+        <v>794</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>33</v>
+      </c>
+      <c r="I27" s="4">
+        <f>H27*100/$F$27</f>
+        <v>4.1561712846347607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
+        <v>366.5</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" ref="D28:D34" si="4">C28*100/$A$27</f>
+        <v>20.543721973094172</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>113</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" ref="I28:I34" si="5">H28*100/$F$27</f>
+        <v>14.231738035264483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6">
+        <v>150</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="4"/>
+        <v>8.4080717488789229</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6">
+        <v>3</v>
+      </c>
+      <c r="H29" s="6">
+        <v>108</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="5"/>
+        <v>13.602015113350125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6">
+        <v>150</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="4"/>
+        <v>8.4080717488789229</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6">
+        <v>4</v>
+      </c>
+      <c r="H30" s="6">
+        <v>105</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="5"/>
+        <v>13.224181360201511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>150</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="4"/>
+        <v>8.4080717488789229</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6">
+        <v>93</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="5"/>
+        <v>11.712846347607053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>150</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="4"/>
+        <v>8.4080717488789229</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6">
+        <v>6</v>
+      </c>
+      <c r="H32" s="6">
+        <v>127</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="5"/>
+        <v>15.994962216624685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6">
+        <v>150</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="4"/>
+        <v>8.4080717488789229</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6">
+        <v>98</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="5"/>
+        <v>12.342569269521411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>366.5</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="4"/>
+        <v>20.543721973094172</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6">
+        <v>8</v>
+      </c>
+      <c r="H34" s="6">
+        <v>117</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="5"/>
+        <v>14.735516372795971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="8"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10">
+        <f>SUM(C27:C35)</f>
+        <v>1784</v>
+      </c>
+      <c r="D37" s="11">
+        <f>SUM(D27:D35)</f>
+        <v>100</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
+        <f>SUM(H27:H35)</f>
+        <v>794</v>
+      </c>
+      <c r="I37" s="11">
+        <f>SUM(I27:I35)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f>C50</f>
+        <v>1784</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>150</v>
+      </c>
+      <c r="D39" s="4">
+        <f>C39*100/$A$39</f>
+        <v>8.4080717488789229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6">
+        <v>318</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" ref="D40:D48" si="6">C40*100/$A$39</f>
+        <v>17.825112107623319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6">
+        <v>318</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="6"/>
+        <v>17.825112107623319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6">
+        <v>150</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="6"/>
+        <v>8.4080717488789229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6">
+        <v>150</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="6"/>
+        <v>8.4080717488789229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6">
+        <v>6</v>
+      </c>
+      <c r="C44" s="6">
+        <v>150</v>
+      </c>
+      <c r="D44" s="7">
+        <f>C44*100/$A$39</f>
+        <v>8.4080717488789229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6">
+        <v>150</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="6"/>
+        <v>8.4080717488789229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6">
+        <v>318</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="6"/>
+        <v>17.825112107623319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12">
+        <v>40</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="6"/>
+        <v>2.2421524663677128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6">
+        <v>10</v>
+      </c>
+      <c r="C48" s="12">
+        <v>40</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="6"/>
+        <v>2.2421524663677128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10">
+        <f>SUM(C39:C48)</f>
+        <v>1784</v>
+      </c>
+      <c r="D50" s="11">
+        <f>SUM(D39:D48)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <f>C63</f>
+        <v>1784</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>356.8</v>
+      </c>
+      <c r="D52" s="4">
+        <f>C52*100/$A$52</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6">
+        <v>356.8</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" ref="D53:D56" si="7">C53*100/$A$52</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6">
+        <v>3</v>
+      </c>
+      <c r="C54" s="6">
+        <v>356.8</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6">
+        <v>4</v>
+      </c>
+      <c r="C55" s="6">
+        <v>356.8</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6">
+        <v>356.8</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10">
+        <f>SUM(C52:C61)</f>
+        <v>1784</v>
+      </c>
+      <c r="D63" s="11">
+        <f>SUM(D52:D61)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <f>C76</f>
+        <v>438.01000000000005</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>33</v>
+      </c>
+      <c r="D65" s="4">
+        <f>C65*100/$A$65</f>
+        <v>7.5340745645076588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6">
+        <v>2</v>
+      </c>
+      <c r="C66" s="6">
+        <v>121.67</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" ref="D66:D69" si="8">C66*100/$A$65</f>
+        <v>27.777904614049906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6">
+        <v>3</v>
+      </c>
+      <c r="C67" s="6">
+        <v>121.67</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" si="8"/>
+        <v>27.777904614049906</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6">
+        <v>4</v>
+      </c>
+      <c r="C68" s="6">
+        <v>121.67</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="8"/>
+        <v>27.777904614049906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6">
+        <v>5</v>
+      </c>
+      <c r="C69" s="6">
+        <v>40</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="8"/>
+        <v>9.1322115933426176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10">
+        <f>SUM(C65:C74)</f>
+        <v>438.01000000000005</v>
+      </c>
+      <c r="D76" s="11">
+        <f>SUM(D65:D74)</f>
+        <v>99.999999999999986</v>
       </c>
     </row>
   </sheetData>

--- a/trash/рассчет колонок.xlsx
+++ b/trash/рассчет колонок.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEXX\Работа\Plant\trash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Programming\000.WW\Plant\site.Plant\trash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B39074A-C842-4DAE-A677-FD8075380CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A922A2D-3FBC-40D7-A2DF-8CFCFF5C6DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81026F23-6CD7-4178-9575-9D4AEA9F9CFB}"/>
+    <workbookView xWindow="34260" yWindow="3492" windowWidth="21528" windowHeight="11580" xr2:uid="{81026F23-6CD7-4178-9575-9D4AEA9F9CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -139,20 +139,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -467,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFCC56-5908-45A8-AFE8-DFE2132E7FF6}">
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1784</v>
       </c>
@@ -532,7 +530,7 @@
         <v>4.7075606276747504</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D2">
         <v>2</v>
       </c>
@@ -578,7 +576,7 @@
         <v>18.40228245363766</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>3</v>
       </c>
@@ -624,7 +622,7 @@
         <v>15.406562054208274</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>4</v>
       </c>
@@ -670,7 +668,7 @@
         <v>13.98002853067047</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>5</v>
       </c>
@@ -705,7 +703,7 @@
         <v>16.547788873038517</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>6</v>
       </c>
@@ -740,7 +738,7 @@
         <v>16.690442225392296</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>7</v>
       </c>
@@ -775,7 +773,7 @@
         <v>14.265335235378032</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>8</v>
       </c>
@@ -800,7 +798,7 @@
         <v>2.2421524663677128</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>9</v>
       </c>
@@ -840,7 +838,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E10">
         <f>SUM(E1:E9)</f>
         <v>1784</v>
@@ -854,14 +852,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E11">
         <f>E10-B1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f>C25</f>
         <v>1084</v>
@@ -873,134 +871,132 @@
         <v>33</v>
       </c>
       <c r="D15" s="4">
-        <f>C15*100/$A$15</f>
+        <f t="shared" ref="D15:D23" si="4">C15*100/$A$15</f>
         <v>3.0442804428044279</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>105</v>
       </c>
-      <c r="D16" s="7">
-        <f>C16*100/$A$15</f>
+      <c r="D16" s="6">
+        <f t="shared" si="4"/>
         <v>9.6863468634686338</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>93</v>
       </c>
-      <c r="D17" s="7">
-        <f>C17*100/$A$15</f>
+      <c r="D17" s="6">
+        <f t="shared" si="4"/>
         <v>8.5793357933579344</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>98</v>
       </c>
-      <c r="D18" s="7">
-        <f>C18*100/$A$15</f>
+      <c r="D18" s="6">
+        <f t="shared" si="4"/>
         <v>9.0405904059040587</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>155.25</v>
       </c>
-      <c r="D19" s="7">
-        <f>C19*100/$A$15</f>
+      <c r="D19" s="6">
+        <f t="shared" si="4"/>
         <v>14.321955719557195</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>134</v>
       </c>
-      <c r="D20" s="7">
-        <f>C20*100/$A$15</f>
+      <c r="D20" s="6">
+        <f t="shared" si="4"/>
         <v>12.361623616236162</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>155.25</v>
       </c>
-      <c r="D21" s="7">
-        <f>C21*100/$A$15</f>
+      <c r="D21" s="6">
+        <f t="shared" si="4"/>
         <v>14.321955719557195</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>155.25</v>
       </c>
-      <c r="D22" s="7">
-        <f>C22*100/$A$15</f>
+      <c r="D22" s="6">
+        <f t="shared" si="4"/>
         <v>14.321955719557195</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>155.25</v>
       </c>
-      <c r="D23" s="7">
-        <f>C23*100/$A$15</f>
+      <c r="D23" s="6">
+        <f t="shared" si="4"/>
         <v>14.321955719557195</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9">
         <f>SUM(C15:C23)</f>
         <v>1084</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f>SUM(D15:D23)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f>C37</f>
         <v>1784</v>
@@ -1030,218 +1026,210 @@
         <v>4.1561712846347607</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>366.5</v>
       </c>
-      <c r="D28" s="7">
-        <f t="shared" ref="D28:D34" si="4">C28*100/$A$27</f>
+      <c r="D28" s="6">
+        <f t="shared" ref="D28:D34" si="5">C28*100/$A$27</f>
         <v>20.543721973094172</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="6">
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <v>113</v>
       </c>
-      <c r="I28" s="7">
-        <f t="shared" ref="I28:I34" si="5">H28*100/$F$27</f>
+      <c r="I28" s="6">
+        <f t="shared" ref="I28:I34" si="6">H28*100/$F$27</f>
         <v>14.231738035264483</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>150</v>
       </c>
-      <c r="D29" s="7">
-        <f t="shared" si="4"/>
+      <c r="D29" s="6">
+        <f t="shared" si="5"/>
         <v>8.4080717488789229</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="6">
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>108</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
+        <f t="shared" si="6"/>
+        <v>13.602015113350125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="D30" s="6">
         <f t="shared" si="5"/>
-        <v>13.602015113350125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
+        <v>8.4080717488789229</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="H30">
+        <v>105</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="6"/>
+        <v>13.224181360201511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>150</v>
       </c>
-      <c r="D30" s="7">
-        <f t="shared" si="4"/>
+      <c r="D31" s="6">
+        <f t="shared" si="5"/>
         <v>8.4080717488789229</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6">
-        <v>4</v>
-      </c>
-      <c r="H30" s="6">
-        <v>105</v>
-      </c>
-      <c r="I30" s="7">
+      <c r="F31" s="5"/>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>93</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="6"/>
+        <v>11.712846347607053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>150</v>
+      </c>
+      <c r="D32" s="6">
         <f t="shared" si="5"/>
-        <v>13.224181360201511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6">
-        <v>5</v>
-      </c>
-      <c r="C31" s="6">
+        <v>8.4080717488789229</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>127</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="6"/>
+        <v>15.994962216624685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
         <v>150</v>
       </c>
-      <c r="D31" s="7">
-        <f t="shared" si="4"/>
+      <c r="D33" s="6">
+        <f t="shared" si="5"/>
         <v>8.4080717488789229</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6">
-        <v>5</v>
-      </c>
-      <c r="H31" s="6">
-        <v>93</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="F33" s="5"/>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>98</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="6"/>
+        <v>12.342569269521411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>366.5</v>
+      </c>
+      <c r="D34" s="6">
         <f t="shared" si="5"/>
-        <v>11.712846347607053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6">
-        <v>6</v>
-      </c>
-      <c r="C32" s="6">
-        <v>150</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="4"/>
-        <v>8.4080717488789229</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6">
-        <v>6</v>
-      </c>
-      <c r="H32" s="6">
-        <v>127</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="5"/>
-        <v>15.994962216624685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6">
-        <v>7</v>
-      </c>
-      <c r="C33" s="6">
-        <v>150</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="4"/>
-        <v>8.4080717488789229</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6">
-        <v>7</v>
-      </c>
-      <c r="H33" s="6">
-        <v>98</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="5"/>
-        <v>12.342569269521411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6">
+        <v>20.543721973094172</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34">
         <v>8</v>
       </c>
-      <c r="C34" s="6">
-        <v>366.5</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" si="4"/>
-        <v>20.543721973094172</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6">
-        <v>8</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <v>117</v>
       </c>
-      <c r="I34" s="7">
-        <f t="shared" si="5"/>
+      <c r="I34" s="6">
+        <f t="shared" si="6"/>
         <v>14.735516372795971</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="6"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9">
         <f>SUM(C27:C35)</f>
         <v>1784</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f>SUM(D27:D35)</f>
         <v>100</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10">
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9">
         <f>SUM(H27:H35)</f>
         <v>794</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <f>SUM(I27:I35)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f>C50</f>
         <v>1784</v>
@@ -1253,147 +1241,162 @@
         <v>150</v>
       </c>
       <c r="D39" s="4">
-        <f>C39*100/$A$39</f>
+        <f>C39*100/A39</f>
         <v>8.4080717488789229</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="6">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>318</v>
       </c>
-      <c r="D40" s="7">
-        <f t="shared" ref="D40:D48" si="6">C40*100/$A$39</f>
+      <c r="D40" s="6">
+        <f>C40*100/A39</f>
         <v>17.825112107623319</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>318</v>
       </c>
-      <c r="D41" s="7">
-        <f t="shared" si="6"/>
+      <c r="D41" s="6">
+        <f>C41*100/A39</f>
         <v>17.825112107623319</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="6">
+      <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>150</v>
       </c>
-      <c r="D42" s="7">
-        <f t="shared" si="6"/>
+      <c r="D42" s="6">
+        <f>C42*100/A39</f>
         <v>8.4080717488789229</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>874</v>
+      </c>
+      <c r="H42">
+        <f>G42*H44/G44</f>
+        <v>46.98924731182796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>150</v>
       </c>
-      <c r="D43" s="7">
-        <f t="shared" si="6"/>
+      <c r="D43" s="6">
+        <f>C43*100/A39</f>
         <v>8.4080717488789229</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="6">
+      <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>150</v>
       </c>
-      <c r="D44" s="7">
-        <f>C44*100/$A$39</f>
+      <c r="D44" s="6">
+        <f>C44*100/A39</f>
         <v>8.4080717488789229</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f>G43+G42</f>
+        <v>1860</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="6">
+      <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45">
         <v>150</v>
       </c>
-      <c r="D45" s="7">
-        <f t="shared" si="6"/>
+      <c r="D45" s="6">
+        <f>C45*100/A39</f>
         <v>8.4080717488789229</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="6">
+      <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46">
         <v>318</v>
       </c>
-      <c r="D46" s="7">
-        <f t="shared" si="6"/>
+      <c r="D46" s="6">
+        <f>C46*100/A39</f>
         <v>17.825112107623319</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="6">
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47">
         <v>40</v>
       </c>
-      <c r="D47" s="7">
-        <f t="shared" si="6"/>
+      <c r="D47" s="6">
+        <f>C47*100/A39</f>
         <v>2.2421524663677128</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="6">
+      <c r="B48">
         <v>10</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48">
         <v>40</v>
       </c>
-      <c r="D48" s="7">
-        <f t="shared" si="6"/>
+      <c r="D48" s="6">
+        <f>C48*100/A39</f>
         <v>2.2421524663677128</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10">
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9">
         <f>SUM(C39:C48)</f>
         <v>1784</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <f>SUM(D39:D48)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f>C63</f>
         <v>1784</v>
@@ -1409,108 +1412,96 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>2</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>356.8</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <f t="shared" ref="D53:D56" si="7">C53*100/$A$52</f>
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-      <c r="B54" s="6">
+      <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>356.8</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>4</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>356.8</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="6">
+      <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56">
         <v>356.8</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10">
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9">
         <f>SUM(C52:C61)</f>
         <v>1784</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="10">
         <f>SUM(D52:D61)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f>C76</f>
         <v>438.01000000000005</v>
@@ -1526,103 +1517,357 @@
         <v>7.5340745645076588</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="B66" s="6">
+      <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66">
         <v>121.67</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <f t="shared" ref="D66:D69" si="8">C66*100/$A$65</f>
         <v>27.777904614049906</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
-      <c r="B67" s="6">
+      <c r="B67">
         <v>3</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67">
         <v>121.67</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <f t="shared" si="8"/>
         <v>27.777904614049906</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="6">
+      <c r="B68">
         <v>4</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68">
         <v>121.67</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <f t="shared" si="8"/>
         <v>27.777904614049906</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
-      <c r="B69" s="6">
+      <c r="B69">
         <v>5</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69">
         <v>40</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <f t="shared" si="8"/>
         <v>9.1322115933426176</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10">
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9">
         <f>SUM(C65:C74)</f>
         <v>438.01000000000005</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <f>SUM(D65:D74)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <f>C89</f>
+        <v>1015</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>33</v>
+      </c>
+      <c r="D78" s="4">
+        <f>C78*100/A78</f>
+        <v>3.2512315270935961</v>
+      </c>
+      <c r="F78" s="2">
+        <f>H89</f>
+        <v>906</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>33</v>
+      </c>
+      <c r="I78" s="4">
+        <f>H78*100/F78</f>
+        <v>3.6423841059602649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>138</v>
+      </c>
+      <c r="D79" s="6">
+        <f>C79*100/A78</f>
+        <v>13.596059113300493</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>105</v>
+      </c>
+      <c r="I79" s="6">
+        <f>H79*100/F78</f>
+        <v>11.589403973509933</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>108</v>
+      </c>
+      <c r="D80" s="6">
+        <f>C80*100/A78</f>
+        <v>10.64039408866995</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>93</v>
+      </c>
+      <c r="I80" s="6">
+        <f>H80*100/F78</f>
+        <v>10.264900662251655</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>98</v>
+      </c>
+      <c r="D81" s="6">
+        <f>C81*100/A78</f>
+        <v>9.6551724137931032</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>98</v>
+      </c>
+      <c r="I81" s="6">
+        <f>H81*100/F78</f>
+        <v>10.816777041942604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>116</v>
+      </c>
+      <c r="D82" s="6">
+        <f>C82*100/A78</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>110.75</v>
+      </c>
+      <c r="I82" s="6">
+        <f>H82*100/F78</f>
+        <v>12.224061810154526</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>117</v>
+      </c>
+      <c r="D83" s="6">
+        <f>C83*100/A78</f>
+        <v>11.527093596059114</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83">
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <v>134</v>
+      </c>
+      <c r="I83" s="6">
+        <f>H83*100/F78</f>
+        <v>14.790286975717439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="D84" s="6">
+        <f>C84*100/A78</f>
+        <v>9.8522167487684733</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84">
+        <v>110.75</v>
+      </c>
+      <c r="I84" s="6">
+        <f>H84*100/F78</f>
+        <v>12.224061810154526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>101</v>
+      </c>
+      <c r="D85" s="6">
+        <f>C85*100/A78</f>
+        <v>9.9507389162561584</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85">
+        <v>8</v>
+      </c>
+      <c r="H85">
+        <v>110.75</v>
+      </c>
+      <c r="I85" s="6">
+        <f>H85*100/F78</f>
+        <v>12.224061810154526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>102</v>
+      </c>
+      <c r="D86" s="6">
+        <f>C86*100/A78</f>
+        <v>10.049261083743842</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86">
+        <v>9</v>
+      </c>
+      <c r="H86">
+        <v>110.75</v>
+      </c>
+      <c r="I86" s="6">
+        <f>H86*100/F78</f>
+        <v>12.224061810154526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
+      <c r="B87">
+        <v>109</v>
+      </c>
+      <c r="C87">
+        <v>102</v>
+      </c>
+      <c r="D87" s="6">
+        <f>C87*100/A78</f>
+        <v>10.049261083743842</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+      <c r="D88" s="7"/>
+      <c r="F88" s="5"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9">
+        <f>SUM(C78:C87)</f>
+        <v>1015</v>
+      </c>
+      <c r="D89" s="10">
+        <f>SUM(D78:D87)</f>
+        <v>100</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9">
+        <f>SUM(H78:H87)</f>
+        <v>906</v>
+      </c>
+      <c r="I89" s="10">
+        <f>SUM(I78:I87)</f>
         <v>99.999999999999986</v>
       </c>
     </row>

--- a/trash/рассчет колонок.xlsx
+++ b/trash/рассчет колонок.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Programming\000.WW\Plant\site.Plant\trash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEXX\Работа\Plant\trash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A922A2D-3FBC-40D7-A2DF-8CFCFF5C6DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC1608-AF04-419A-8742-09A7895CB0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34260" yWindow="3492" windowWidth="21528" windowHeight="11580" xr2:uid="{81026F23-6CD7-4178-9575-9D4AEA9F9CFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81026F23-6CD7-4178-9575-9D4AEA9F9CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -468,12 +468,12 @@
   <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+      <selection activeCell="S78" sqref="S78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1784</v>
       </c>
@@ -530,7 +530,7 @@
         <v>4.7075606276747504</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>2</v>
       </c>
@@ -576,7 +576,7 @@
         <v>18.40228245363766</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>3</v>
       </c>
@@ -622,7 +622,7 @@
         <v>15.406562054208274</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>4</v>
       </c>
@@ -668,7 +668,7 @@
         <v>13.98002853067047</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>5</v>
       </c>
@@ -703,7 +703,7 @@
         <v>16.547788873038517</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>6</v>
       </c>
@@ -738,7 +738,7 @@
         <v>16.690442225392296</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>7</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14.265335235378032</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>8</v>
       </c>
@@ -798,7 +798,7 @@
         <v>2.2421524663677128</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>9</v>
       </c>
@@ -838,7 +838,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>SUM(E1:E9)</f>
         <v>1784</v>
@@ -852,14 +852,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>E10-B1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>C25</f>
         <v>1084</v>
@@ -875,7 +875,7 @@
         <v>3.0442804428044279</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16">
         <v>2</v>
@@ -888,7 +888,7 @@
         <v>9.6863468634686338</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17">
         <v>3</v>
@@ -901,7 +901,7 @@
         <v>8.5793357933579344</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18">
         <v>4</v>
@@ -914,7 +914,7 @@
         <v>9.0405904059040587</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19">
         <v>5</v>
@@ -927,7 +927,7 @@
         <v>14.321955719557195</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20">
         <v>6</v>
@@ -940,7 +940,7 @@
         <v>12.361623616236162</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21">
         <v>7</v>
@@ -953,7 +953,7 @@
         <v>14.321955719557195</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22">
         <v>8</v>
@@ -966,7 +966,7 @@
         <v>14.321955719557195</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23">
         <v>9</v>
@@ -979,11 +979,11 @@
         <v>14.321955719557195</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9">
@@ -995,8 +995,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>C37</f>
         <v>1784</v>
@@ -1026,7 +1026,7 @@
         <v>4.1561712846347607</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28">
         <v>2</v>
@@ -1050,7 +1050,7 @@
         <v>14.231738035264483</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29">
         <v>3</v>
@@ -1074,7 +1074,7 @@
         <v>13.602015113350125</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30">
         <v>4</v>
@@ -1098,7 +1098,7 @@
         <v>13.224181360201511</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31">
         <v>5</v>
@@ -1122,7 +1122,7 @@
         <v>11.712846347607053</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32">
         <v>6</v>
@@ -1146,7 +1146,7 @@
         <v>15.994962216624685</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33">
         <v>7</v>
@@ -1170,7 +1170,7 @@
         <v>12.342569269521411</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34">
         <v>8</v>
@@ -1194,19 +1194,19 @@
         <v>14.735516372795971</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="D35" s="6"/>
       <c r="F35" s="5"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="D36" s="7"/>
       <c r="F36" s="5"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9">
@@ -1228,8 +1228,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>C50</f>
         <v>1784</v>
@@ -1245,7 +1245,7 @@
         <v>8.4080717488789229</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>17.825112107623319</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41">
         <v>3</v>
@@ -1271,7 +1271,7 @@
         <v>17.825112107623319</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42">
         <v>4</v>
@@ -1291,7 +1291,7 @@
         <v>46.98924731182796</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43">
         <v>5</v>
@@ -1307,7 +1307,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44">
         <v>6</v>
@@ -1327,7 +1327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45">
         <v>7</v>
@@ -1340,7 +1340,7 @@
         <v>8.4080717488789229</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46">
         <v>8</v>
@@ -1353,7 +1353,7 @@
         <v>17.825112107623319</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47">
         <v>9</v>
@@ -1366,7 +1366,7 @@
         <v>2.2421524663677128</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48">
         <v>10</v>
@@ -1379,11 +1379,11 @@
         <v>2.2421524663677128</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9">
@@ -1395,8 +1395,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f>C63</f>
         <v>1784</v>
@@ -1412,7 +1412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53">
         <v>2</v>
@@ -1425,7 +1425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54">
         <v>3</v>
@@ -1438,7 +1438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55">
         <v>4</v>
@@ -1451,7 +1451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56">
         <v>5</v>
@@ -1464,31 +1464,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9">
@@ -1500,8 +1500,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <f>C76</f>
         <v>438.01000000000005</v>
@@ -1517,7 +1517,7 @@
         <v>7.5340745645076588</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66">
         <v>2</v>
@@ -1530,7 +1530,7 @@
         <v>27.777904614049906</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67">
         <v>3</v>
@@ -1543,7 +1543,7 @@
         <v>27.777904614049906</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68">
         <v>4</v>
@@ -1556,7 +1556,7 @@
         <v>27.777904614049906</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69">
         <v>5</v>
@@ -1569,31 +1569,31 @@
         <v>9.1322115933426176</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9">
@@ -1605,8 +1605,8 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <f>C89</f>
         <v>1015</v>
@@ -1623,20 +1623,48 @@
       </c>
       <c r="F78" s="2">
         <f>H89</f>
-        <v>906</v>
+        <v>529</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
       </c>
       <c r="H78" s="3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I78" s="4">
         <f>H78*100/F78</f>
-        <v>3.6423841059602649</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.103969754253308</v>
+      </c>
+      <c r="K78" s="2">
+        <f>M89</f>
+        <v>569</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1</v>
+      </c>
+      <c r="M78" s="3">
+        <v>59</v>
+      </c>
+      <c r="N78" s="4">
+        <f>M78*100/K78</f>
+        <v>10.369068541300527</v>
+      </c>
+      <c r="P78" s="2">
+        <f>R89</f>
+        <v>667.6</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>1</v>
+      </c>
+      <c r="R78" s="3">
+        <v>113.8</v>
+      </c>
+      <c r="S78" s="4">
+        <f>R78*100/P78</f>
+        <v>17.046135410425403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79">
         <v>2</v>
@@ -1653,14 +1681,36 @@
         <v>2</v>
       </c>
       <c r="H79">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="I79" s="6">
         <f>H79*100/F78</f>
-        <v>11.589403973509933</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16.446124763705104</v>
+      </c>
+      <c r="K79" s="5"/>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>70</v>
+      </c>
+      <c r="N79" s="6">
+        <f>M79*100/K78</f>
+        <v>12.302284710017574</v>
+      </c>
+      <c r="P79" s="5"/>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>113.8</v>
+      </c>
+      <c r="S79" s="6">
+        <f>R79*100/P78</f>
+        <v>17.046135410425403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80">
         <v>3</v>
@@ -1677,14 +1727,36 @@
         <v>3</v>
       </c>
       <c r="H80">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I80" s="6">
         <f>H80*100/F78</f>
-        <v>10.264900662251655</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13.988657844990549</v>
+      </c>
+      <c r="K80" s="5"/>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>68</v>
+      </c>
+      <c r="N80" s="6">
+        <f>M80*100/K78</f>
+        <v>11.950790861159931</v>
+      </c>
+      <c r="P80" s="5"/>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>68</v>
+      </c>
+      <c r="S80" s="6">
+        <f>R80*100/P78</f>
+        <v>10.185739964050329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81">
         <v>4</v>
@@ -1701,14 +1773,36 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="I81" s="6">
         <f>H81*100/F78</f>
-        <v>10.816777041942604</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12.476370510396976</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>80</v>
+      </c>
+      <c r="N81" s="6">
+        <f>M81*100/K78</f>
+        <v>14.059753954305799</v>
+      </c>
+      <c r="P81" s="5"/>
+      <c r="Q81">
+        <v>4</v>
+      </c>
+      <c r="R81">
+        <v>80</v>
+      </c>
+      <c r="S81" s="6">
+        <f>R81*100/P78</f>
+        <v>11.983223487118034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82">
         <v>5</v>
@@ -1725,14 +1819,36 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>110.75</v>
+        <v>55</v>
       </c>
       <c r="I82" s="6">
         <f>H82*100/F78</f>
-        <v>12.224061810154526</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10.396975425330814</v>
+      </c>
+      <c r="K82" s="5"/>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>79</v>
+      </c>
+      <c r="N82" s="6">
+        <f>M82*100/K78</f>
+        <v>13.884007029876978</v>
+      </c>
+      <c r="P82" s="5"/>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82">
+        <v>79</v>
+      </c>
+      <c r="S82" s="6">
+        <f>R82*100/P78</f>
+        <v>11.833433193529059</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83">
         <v>6</v>
@@ -1749,14 +1865,36 @@
         <v>6</v>
       </c>
       <c r="H83">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="I83" s="6">
         <f>H83*100/F78</f>
-        <v>14.790286975717439</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10.396975425330814</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83">
+        <v>6</v>
+      </c>
+      <c r="M83">
+        <v>213</v>
+      </c>
+      <c r="N83" s="6">
+        <f>M83*100/K78</f>
+        <v>37.434094903339194</v>
+      </c>
+      <c r="P83" s="5"/>
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>213</v>
+      </c>
+      <c r="S83" s="6">
+        <f>R83*100/P78</f>
+        <v>31.905332534451766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84">
         <v>7</v>
@@ -1773,14 +1911,18 @@
         <v>7</v>
       </c>
       <c r="H84">
-        <v>110.75</v>
+        <v>55</v>
       </c>
       <c r="I84" s="6">
         <f>H84*100/F78</f>
-        <v>12.224061810154526</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10.396975425330814</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="N84" s="6"/>
+      <c r="P84" s="5"/>
+      <c r="S84" s="6"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85">
         <v>8</v>
@@ -1797,14 +1939,18 @@
         <v>8</v>
       </c>
       <c r="H85">
-        <v>110.75</v>
+        <v>55</v>
       </c>
       <c r="I85" s="6">
         <f>H85*100/F78</f>
-        <v>12.224061810154526</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10.396975425330814</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="N85" s="6"/>
+      <c r="P85" s="5"/>
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86">
         <v>9</v>
@@ -1821,14 +1967,18 @@
         <v>9</v>
       </c>
       <c r="H86">
-        <v>110.75</v>
+        <v>55</v>
       </c>
       <c r="I86" s="6">
         <f>H86*100/F78</f>
-        <v>12.224061810154526</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10.396975425330814</v>
+      </c>
+      <c r="K86" s="5"/>
+      <c r="N86" s="6"/>
+      <c r="P86" s="5"/>
+      <c r="S86" s="6"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87">
         <v>109</v>
@@ -1842,14 +1992,22 @@
       </c>
       <c r="F87" s="5"/>
       <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K87" s="5"/>
+      <c r="N87" s="6"/>
+      <c r="P87" s="5"/>
+      <c r="S87" s="6"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="D88" s="7"/>
       <c r="F88" s="5"/>
       <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K88" s="5"/>
+      <c r="N88" s="7"/>
+      <c r="P88" s="5"/>
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9">
@@ -1864,11 +2022,31 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9">
         <f>SUM(H78:H87)</f>
-        <v>906</v>
+        <v>529</v>
       </c>
       <c r="I89" s="10">
         <f>SUM(I78:I87)</f>
         <v>99.999999999999986</v>
+      </c>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9">
+        <f>SUM(M78:M87)</f>
+        <v>569</v>
+      </c>
+      <c r="N89" s="10">
+        <f>SUM(N78:N87)</f>
+        <v>100</v>
+      </c>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9">
+        <f>SUM(R78:R87)</f>
+        <v>667.6</v>
+      </c>
+      <c r="S89" s="10">
+        <f>SUM(S78:S87)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
